--- a/src/test/resources/TestData/ParallelTest.xlsx
+++ b/src/test/resources/TestData/ParallelTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhaskarreddy/Documents/Automation/FH/Development/trigon/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FE38D-1667-D944-B116-00B77896DBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14250D76-F5CB-7B4F-9DCD-2CBD263531E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17040" xr2:uid="{BED36A3D-FBC8-2941-B067-287043B42170}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>TestName</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>SubCityURL</t>
-  </si>
-  <si>
     <t>https://heyyou.com.au/restaurant/4380/cafe-habitat</t>
   </si>
   <si>
@@ -111,6 +108,12 @@
   </si>
   <si>
     <t>parallelTest</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -511,11 +514,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B45B3AC-6719-AB41-AF0A-FF0319C6303B}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -525,15 +531,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -542,12 +548,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -556,12 +562,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -570,12 +576,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -584,231 +590,231 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
